--- a/mail/config.xlsx
+++ b/mail/config.xlsx
@@ -1,91 +1,124 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ted/Documents/JavaWorkspace/InterfaceTest/mail/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="mail" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+  <si>
+    <t>AutoMail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmtpPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smtp.sina.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmtpHost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MailAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MailPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tedwang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendFrom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tedwang@sina.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wsq851021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>on</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AutoMail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SmtpPort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>smtp.sina.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SmtpHost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MailAccount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MailPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>******</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tedwang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SendFrom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tedwang@sina.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC</t>
+    <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx系统接口自动化测试报告</t>
+    <rPh sb="3" eb="4">
+      <t>xi't</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie'k</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zi'dong'h</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bao'g</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -126,6 +159,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -172,12 +210,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -204,14 +242,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -238,6 +277,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -413,79 +453,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="3" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>465</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -496,12 +544,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -510,12 +558,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mail/config.xlsx
+++ b/mail/config.xlsx
@@ -72,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wsq851021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>on</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,6 +96,10 @@
     <rPh sb="12" eb="13">
       <t>bao'g</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>********</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +457,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -472,7 +472,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -504,7 +504,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -530,10 +530,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/mail/config.xlsx
+++ b/mail/config.xlsx
@@ -72,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>on</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,6 +96,10 @@
   </si>
   <si>
     <t>********</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>off</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +457,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -472,7 +472,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -504,7 +504,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -530,10 +530,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/mail/config.xlsx
+++ b/mail/config.xlsx
@@ -95,11 +95,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>********</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>************</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +457,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -472,7 +472,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -504,7 +504,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">

--- a/mail/config.xlsx
+++ b/mail/config.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ted/Documents/JavaWorkspace/InterfaceTest/mail/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="mail" sheetId="1" r:id="rId1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>AutoMail</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,19 +90,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>8249631@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>off</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>************</t>
+    <t>********</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -245,7 +244,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -453,29 +452,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="1"/>
+    <col min="3" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -483,7 +482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -491,7 +490,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -499,15 +498,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -515,7 +514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -523,12 +522,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -544,12 +546,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -558,12 +560,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mail/config.xlsx
+++ b/mail/config.xlsx
@@ -98,7 +98,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>********</t>
+    <t>*********</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,7 +456,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>

--- a/mail/config.xlsx
+++ b/mail/config.xlsx
@@ -94,11 +94,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>***********</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*********</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,7 +456,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
